--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Rtn4-Tnfrsf19.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Rtn4-Tnfrsf19.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.797777</v>
+        <v>11.14494766666667</v>
       </c>
       <c r="H2">
-        <v>122.393331</v>
+        <v>33.434843</v>
       </c>
       <c r="I2">
-        <v>0.2689231481273683</v>
+        <v>0.1279818847384872</v>
       </c>
       <c r="J2">
-        <v>0.2689231481273683</v>
+        <v>0.1279818847384872</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.05206533333333333</v>
+        <v>0.01392333333333333</v>
       </c>
       <c r="N2">
-        <v>0.156196</v>
+        <v>0.04177</v>
       </c>
       <c r="O2">
-        <v>0.03170654174267026</v>
+        <v>0.008343913876905598</v>
       </c>
       <c r="P2">
-        <v>0.03170654174267026</v>
+        <v>0.008343913876905598</v>
       </c>
       <c r="Q2">
-        <v>2.124149858764</v>
+        <v>0.1551748213455556</v>
       </c>
       <c r="R2">
-        <v>19.117348728876</v>
+        <v>1.39657339211</v>
       </c>
       <c r="S2">
-        <v>0.008526623021670699</v>
+        <v>0.001067869824061997</v>
       </c>
       <c r="T2">
-        <v>0.0085266230216707</v>
+        <v>0.001067869824061997</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.797777</v>
+        <v>11.14494766666667</v>
       </c>
       <c r="H3">
-        <v>122.393331</v>
+        <v>33.434843</v>
       </c>
       <c r="I3">
-        <v>0.2689231481273683</v>
+        <v>0.1279818847384872</v>
       </c>
       <c r="J3">
-        <v>0.2689231481273683</v>
+        <v>0.1279818847384872</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.451308</v>
       </c>
       <c r="O3">
-        <v>0.09161192310175054</v>
+        <v>0.09015262350870268</v>
       </c>
       <c r="P3">
-        <v>0.09161192310175056</v>
+        <v>0.09015262350870269</v>
       </c>
       <c r="Q3">
-        <v>6.137454380771999</v>
+        <v>1.676601347182667</v>
       </c>
       <c r="R3">
-        <v>55.237089426948</v>
+        <v>15.089412124644</v>
       </c>
       <c r="S3">
-        <v>0.02463656676652513</v>
+        <v>0.01153790267076302</v>
       </c>
       <c r="T3">
-        <v>0.02463656676652514</v>
+        <v>0.01153790267076302</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.797777</v>
+        <v>11.14494766666667</v>
       </c>
       <c r="H4">
-        <v>122.393331</v>
+        <v>33.434843</v>
       </c>
       <c r="I4">
-        <v>0.2689231481273683</v>
+        <v>0.1279818847384872</v>
       </c>
       <c r="J4">
-        <v>0.2689231481273683</v>
+        <v>0.1279818847384872</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.439599333333333</v>
+        <v>1.504322</v>
       </c>
       <c r="N4">
-        <v>4.318798</v>
+        <v>4.512966</v>
       </c>
       <c r="O4">
-        <v>0.8766815351555791</v>
+        <v>0.9015034626143917</v>
       </c>
       <c r="P4">
-        <v>0.8766815351555792</v>
+        <v>0.9015034626143917</v>
       </c>
       <c r="Q4">
-        <v>58.732452570682</v>
+        <v>16.76558996381533</v>
       </c>
       <c r="R4">
-        <v>528.592073136138</v>
+        <v>150.890309674338</v>
       </c>
       <c r="S4">
-        <v>0.2357599583391724</v>
+        <v>0.1153761122436622</v>
       </c>
       <c r="T4">
-        <v>0.2357599583391725</v>
+        <v>0.1153761122436622</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>138.659493</v>
       </c>
       <c r="I5">
-        <v>0.3046632285488233</v>
+        <v>0.5307607770439682</v>
       </c>
       <c r="J5">
-        <v>0.3046632285488233</v>
+        <v>0.5307607770439681</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.05206533333333333</v>
+        <v>0.01392333333333333</v>
       </c>
       <c r="N5">
-        <v>0.156196</v>
+        <v>0.04177</v>
       </c>
       <c r="O5">
-        <v>0.03170654174267026</v>
+        <v>0.008343913876905598</v>
       </c>
       <c r="P5">
-        <v>0.03170654174267026</v>
+        <v>0.008343913876905598</v>
       </c>
       <c r="Q5">
-        <v>2.406450907625333</v>
+        <v>0.6435341136233333</v>
       </c>
       <c r="R5">
-        <v>21.658058168628</v>
+        <v>5.79180702261</v>
       </c>
       <c r="S5">
-        <v>0.009659817373439955</v>
+        <v>0.004428622212894365</v>
       </c>
       <c r="T5">
-        <v>0.009659817373439957</v>
+        <v>0.004428622212894364</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>138.659493</v>
       </c>
       <c r="I6">
-        <v>0.3046632285488233</v>
+        <v>0.5307607770439682</v>
       </c>
       <c r="J6">
-        <v>0.3046632285488233</v>
+        <v>0.5307607770439681</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.451308</v>
       </c>
       <c r="O6">
-        <v>0.09161192310175054</v>
+        <v>0.09015262350870268</v>
       </c>
       <c r="P6">
-        <v>0.09161192310175056</v>
+        <v>0.09015262350870269</v>
       </c>
       <c r="Q6">
         <v>6.953126496315999</v>
@@ -818,10 +818,10 @@
         <v>62.578138466844</v>
       </c>
       <c r="S6">
-        <v>0.02791078426574585</v>
+        <v>0.04784947650603134</v>
       </c>
       <c r="T6">
-        <v>0.02791078426574586</v>
+        <v>0.04784947650603134</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>138.659493</v>
       </c>
       <c r="I7">
-        <v>0.3046632285488233</v>
+        <v>0.5307607770439682</v>
       </c>
       <c r="J7">
-        <v>0.3046632285488233</v>
+        <v>0.5307607770439681</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.439599333333333</v>
+        <v>1.504322</v>
       </c>
       <c r="N7">
-        <v>4.318798</v>
+        <v>4.512966</v>
       </c>
       <c r="O7">
-        <v>0.8766815351555791</v>
+        <v>0.9015034626143917</v>
       </c>
       <c r="P7">
-        <v>0.8766815351555792</v>
+        <v>0.9015034626143917</v>
       </c>
       <c r="Q7">
-        <v>66.53803789437934</v>
+        <v>69.529508609582</v>
       </c>
       <c r="R7">
-        <v>598.842341049414</v>
+        <v>625.7655774862379</v>
       </c>
       <c r="S7">
-        <v>0.2670926269096375</v>
+        <v>0.4784826783250425</v>
       </c>
       <c r="T7">
-        <v>0.2670926269096375</v>
+        <v>0.4784826783250424</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>64.69033266666666</v>
+        <v>29.71744933333333</v>
       </c>
       <c r="H8">
-        <v>194.070998</v>
+        <v>89.152348</v>
       </c>
       <c r="I8">
-        <v>0.4264136233238083</v>
+        <v>0.3412573382175446</v>
       </c>
       <c r="J8">
-        <v>0.4264136233238083</v>
+        <v>0.3412573382175446</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -924,28 +924,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.05206533333333333</v>
+        <v>0.01392333333333333</v>
       </c>
       <c r="N8">
-        <v>0.156196</v>
+        <v>0.04177</v>
       </c>
       <c r="O8">
-        <v>0.03170654174267026</v>
+        <v>0.008343913876905598</v>
       </c>
       <c r="P8">
-        <v>0.03170654174267026</v>
+        <v>0.008343913876905598</v>
       </c>
       <c r="Q8">
-        <v>3.368123733734222</v>
+        <v>0.4137659528844445</v>
       </c>
       <c r="R8">
-        <v>30.313113603608</v>
+        <v>3.72389357596</v>
       </c>
       <c r="S8">
-        <v>0.0135201013475596</v>
+        <v>0.002847421839949237</v>
       </c>
       <c r="T8">
-        <v>0.0135201013475596</v>
+        <v>0.002847421839949237</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>64.69033266666666</v>
+        <v>29.71744933333333</v>
       </c>
       <c r="H9">
-        <v>194.070998</v>
+        <v>89.152348</v>
       </c>
       <c r="I9">
-        <v>0.4264136233238083</v>
+        <v>0.3412573382175446</v>
       </c>
       <c r="J9">
-        <v>0.4264136233238083</v>
+        <v>0.3412573382175446</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,22 +992,22 @@
         <v>0.451308</v>
       </c>
       <c r="O9">
-        <v>0.09161192310175054</v>
+        <v>0.09015262350870268</v>
       </c>
       <c r="P9">
-        <v>0.09161192310175056</v>
+        <v>0.09015262350870269</v>
       </c>
       <c r="Q9">
-        <v>9.731754885042665</v>
+        <v>4.470574207909333</v>
       </c>
       <c r="R9">
-        <v>87.585793965384</v>
+        <v>40.235167871184</v>
       </c>
       <c r="S9">
-        <v>0.03906457206947955</v>
+        <v>0.03076524433190831</v>
       </c>
       <c r="T9">
-        <v>0.03906457206947956</v>
+        <v>0.03076524433190832</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>64.69033266666666</v>
+        <v>29.71744933333333</v>
       </c>
       <c r="H10">
-        <v>194.070998</v>
+        <v>89.152348</v>
       </c>
       <c r="I10">
-        <v>0.4264136233238083</v>
+        <v>0.3412573382175446</v>
       </c>
       <c r="J10">
-        <v>0.4264136233238083</v>
+        <v>0.3412573382175446</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.439599333333333</v>
+        <v>1.504322</v>
       </c>
       <c r="N10">
-        <v>4.318798</v>
+        <v>4.512966</v>
       </c>
       <c r="O10">
-        <v>0.8766815351555791</v>
+        <v>0.9015034626143917</v>
       </c>
       <c r="P10">
-        <v>0.8766815351555792</v>
+        <v>0.9015034626143917</v>
       </c>
       <c r="Q10">
-        <v>93.1281597800449</v>
+        <v>44.70461281601867</v>
       </c>
       <c r="R10">
-        <v>838.153438020404</v>
+        <v>402.341515344168</v>
       </c>
       <c r="S10">
-        <v>0.3738289499067691</v>
+        <v>0.3076446720456871</v>
       </c>
       <c r="T10">
-        <v>0.3738289499067692</v>
+        <v>0.3076446720456871</v>
       </c>
     </row>
   </sheetData>
